--- a/data/MEDICALHEALTH.xlsx
+++ b/data/MEDICALHEALTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D340D3-8AAF-4246-ACD3-CD3C60D21876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A0B8A-5489-4203-92ED-E7B781978CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECB624A2-CBEE-4560-8E28-1C0A7A00D060}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>coughing</t>
   </si>
@@ -66,9 +66,6 @@
     <t>conventional medicine</t>
   </si>
   <si>
-    <t>thuốc thông thường/ tây y</t>
-  </si>
-  <si>
     <t>acupuncture</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>homeopathy</t>
   </si>
   <si>
-    <t>vi lượng đồng căn (lấy độc trị độc)</t>
-  </si>
-  <si>
     <t>dosage</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>cliff-hanger</t>
   </si>
   <si>
-    <t>cái kết lửng lơ (khiến người đọc tò mò chuyện gì sắp xảy ra)</t>
-  </si>
-  <si>
     <t>sneezing</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>decongestant</t>
   </si>
   <si>
-    <t>thuốc làm thông mũi, chống nghẹt mũi</t>
-  </si>
-  <si>
     <t>antihistamine</t>
   </si>
   <si>
@@ -174,22 +162,628 @@
     <t>scan</t>
   </si>
   <si>
-    <t>đọc nhanh lấy thông tin chi tiết</t>
-  </si>
-  <si>
     <t>popular</t>
   </si>
   <si>
     <t>phổ biến/ được yêu thích</t>
   </si>
   <si>
-    <t>Từ vựng / Cụm từ (English)</t>
-  </si>
-  <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Từ vựng / Cụm từ</t>
+  </si>
+  <si>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>coughing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without covering your mouth.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Food poisoning caused severe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vomiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The smell of the fish made me feel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nauseous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The nurse prepared the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I usually just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>skim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the headlines of the news.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am reading a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>biography</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of Steve Jobs.</t>
+    </r>
+  </si>
+  <si>
+    <t>thuốc tây y</t>
+  </si>
+  <si>
+    <r>
+      <t>Conventional medicine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is often based on science.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My mom uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acupuncture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for headaches.</t>
+    </r>
+  </si>
+  <si>
+    <t>vi lượng đồng căn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He studies </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>homeopathy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as an alternative treatment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check the correct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dosage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on the bottle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Drowsiness is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>side effects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read the health </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>warning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on the package.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We should respect local </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>customs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is a family </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tradition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to eat together on Sundays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Traveling improves your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cultural literacy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Learning business </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>etiquette</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is important.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This thriller is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fast read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>cái kết lửng lơ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The episode ended on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cliff-hanger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pepper makes me start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sneezing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asking about age can be a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>taboo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in some cultures.</t>
+    </r>
+  </si>
+  <si>
+    <t>thuốc làm thông mũi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I took a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>decongestant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for my stuffy nose.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Antihistamine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> helps with itchy eyes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yoga can be a form of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spiritual healing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hunger can cause </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dizziness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>đọc nhanh lấy thông tin</t>
+  </si>
+  <si>
+    <r>
+      <t>Scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the text to find the date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">K-pop is very </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>popular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> globally.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -205,17 +799,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,17 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -253,13 +847,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,261 +1171,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FEE57-6EAC-46AD-A205-BAD575A0EB9B}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
